--- a/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx
+++ b/Logging_JAMTLANDS_LAN/Logging_OSTERSUND/artfynd/A 29992-2023.xlsx
@@ -683,7 +683,7 @@
         <v>110968033</v>
       </c>
       <c r="B2" t="n">
-        <v>73685</v>
+        <v>73688</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
